--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -4,23 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="1245" windowWidth="28800" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Suivi" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan d'actions" sheetId="2" r:id="rId1"/>
+    <sheet name="Suivi des actions" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Acteur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
   <si>
     <t>Status</t>
   </si>
@@ -80,9 +75,6 @@
 Adrien</t>
   </si>
   <si>
-    <t>GestiBank - Suivi du projet</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -95,9 +87,6 @@
     <t>Mettre en cohérence le routing de l'ensemble de l'application</t>
   </si>
   <si>
-    <t>Description fonctionnelle des WebService</t>
-  </si>
-  <si>
     <t>Créer un dépôt GitHub pour le projet</t>
   </si>
   <si>
@@ -111,9 +100,6 @@
   </si>
   <si>
     <t>MàJ Maquette du site</t>
-  </si>
-  <si>
-    <t>Réaliser la description fonctionnelle des WebService</t>
   </si>
   <si>
     <t>Routing Module Admin</t>
@@ -151,6 +137,286 @@
   </si>
   <si>
     <t>Proposer des modeles pour l'interface graphique des différents composants de l'application</t>
+  </si>
+  <si>
+    <t>GestiBank - Plan d'action</t>
+  </si>
+  <si>
+    <t>Description fonctionnelle des Web Services</t>
+  </si>
+  <si>
+    <t>Description structurelle des modèles</t>
+  </si>
+  <si>
+    <t>Phases</t>
+  </si>
+  <si>
+    <t>Etapes</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Implémentation des modèles</t>
+  </si>
+  <si>
+    <t>Implémentation des Web Services</t>
+  </si>
+  <si>
+    <t>Finalisation</t>
+  </si>
+  <si>
+    <t>Internationalisation du site</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Vérification du respect des exigences du cahier des charges</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Amélioration de l'interface graphique</t>
+  </si>
+  <si>
+    <t>Ajout de fonctionnalités supplémentaires</t>
+  </si>
+  <si>
+    <t>Mise en cohérence du site</t>
+  </si>
+  <si>
+    <t>GestiBank - Suivi des actions</t>
+  </si>
+  <si>
+    <t>Acteurs</t>
+  </si>
+  <si>
+    <t>Réf. Plan d'action</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Création d'un compte Slack</t>
+  </si>
+  <si>
+    <t>Module Admin</t>
+  </si>
+  <si>
+    <t>Création des composants du module Admin</t>
+  </si>
+  <si>
+    <t>Module Client</t>
+  </si>
+  <si>
+    <t>Création des composants du module Client</t>
+  </si>
+  <si>
+    <t>Module Conseiller</t>
+  </si>
+  <si>
+    <t>Création des composants du module Conseiller</t>
+  </si>
+  <si>
+    <t>Module Public</t>
+  </si>
+  <si>
+    <t>Création des composants du module Public</t>
+  </si>
+  <si>
+    <t>- Définir la structure des modèles au niveau du BackEnd
+- Définir la structure des modèles au niveau du FrontEnd</t>
+  </si>
+  <si>
+    <t>Organisation du projet</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Mise en place des outils de communication (Slack)</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>FrontEnd - Plan de site</t>
+  </si>
+  <si>
+    <t>FrontEnd - Maquette du site</t>
+  </si>
+  <si>
+    <t>FrontEnd - Design du site</t>
+  </si>
+  <si>
+    <t>BackEnd - Diagramme de classes</t>
+  </si>
+  <si>
+    <t>BackEnd - Description fonctionnelle des Web Services</t>
+  </si>
+  <si>
+    <t>BackEnd - Description structurelle des modèles</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>FrontEnd - Architecture globale</t>
+  </si>
+  <si>
+    <t>Réaliser la description fonctionnelle des Web Services</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>BackEnd - Modèles</t>
+  </si>
+  <si>
+    <t>FrontEnd - Modèles</t>
+  </si>
+  <si>
+    <t>BackEnd - Web Services</t>
+  </si>
+  <si>
+    <t>FrontEnd - Service</t>
+  </si>
+  <si>
+    <t>Communication entre les Services (FrontEnd) et les Web Services (BackEnd)</t>
+  </si>
+  <si>
+    <t>FrontEnd - Partie fonctionnelle</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Interphace graphique des composants (hors DashBoard)</t>
+  </si>
+  <si>
+    <t>Communication entre les services et la partie fonctionnelle des composants</t>
+  </si>
+  <si>
+    <t>Communication entre l'interface graphique et la partie fonctionnelle des composants</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>Communication entre BackEnd et Base de données</t>
+  </si>
+  <si>
+    <t>Composants "DashBoard"</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Test global du site</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Test unitaire - Base de données</t>
+  </si>
+  <si>
+    <t>Test unitaire - Composants</t>
+  </si>
+  <si>
+    <t>Test unitaire - Services et Web Services</t>
+  </si>
+  <si>
+    <t>Test unitaire - Modèles</t>
+  </si>
+  <si>
+    <t>Mise en place des outils de développement collaboratif  (Git et GitHub)</t>
+  </si>
+  <si>
+    <t>Modules et des composants</t>
+  </si>
+  <si>
+    <t>Partie fonctionnelles des composants (hors DashBoard)</t>
   </si>
 </sst>
 </file>
@@ -208,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -268,11 +534,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,6 +587,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,13 +614,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -311,6 +647,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -603,387 +942,1016 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>5</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>6</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>7</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>8</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>43270</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>43271</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3">
-        <v>43270</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="3">
         <v>43270</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="H6" s="3">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43270</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43270</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3">
-        <v>43270</v>
-      </c>
-      <c r="G7" s="3">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3">
-        <v>43271</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3">
-        <v>43271</v>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="3">
         <v>43271</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3">
-        <v>43272</v>
+      <c r="H9" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G10" s="3">
-        <v>43272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
         <v>43271</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="3">
         <v>43271</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="H11" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43272</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43272</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43271</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43271</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43271</v>
+      </c>
+      <c r="H16" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43271</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43271</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43272</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43272</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3">
-        <v>43271</v>
-      </c>
-      <c r="G12" s="3">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43272</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
-        <v>43271</v>
-      </c>
-      <c r="G13" s="3">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43276</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
         <v>43272</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3">
-        <v>43272</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3">
-        <v>43272</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3">
-        <v>43272</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:C3"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62CF2D9E-C12D-D84E-8066-C50E186403EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1245" windowWidth="28800" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan d'actions" sheetId="2" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="142">
   <si>
     <t>Status</t>
   </si>
@@ -90,18 +96,9 @@
     <t>Créer un dépôt GitHub pour le projet</t>
   </si>
   <si>
-    <t>Créer le plan du site de l'application</t>
-  </si>
-  <si>
-    <t>Créer la maquette du site de l'application</t>
-  </si>
-  <si>
     <t>MàJ Routing</t>
   </si>
   <si>
-    <t>MàJ Maquette du site</t>
-  </si>
-  <si>
     <t>Routing Module Admin</t>
   </si>
   <si>
@@ -109,10 +106,6 @@
   </si>
   <si>
     <t>Routing Module Conseiller</t>
-  </si>
-  <si>
-    <t>- Vérifier la maquette par rapport au cahier des charge
-- Mettre à jour la maquette par rapport au routing de l'application</t>
   </si>
   <si>
     <t>Mettre en place le routing général de l'application</t>
@@ -417,12 +410,52 @@
   </si>
   <si>
     <t>Partie fonctionnelles des composants (hors DashBoard)</t>
+  </si>
+  <si>
+    <t>Vérification de la maquette du site</t>
+  </si>
+  <si>
+    <t>Vérification Maquette du site</t>
+  </si>
+  <si>
+    <t>Créer le plan du site</t>
+  </si>
+  <si>
+    <t>Créer la maquette du site</t>
+  </si>
+  <si>
+    <t>BackEnd</t>
+  </si>
+  <si>
+    <t>Architecture du BackEnd</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>FrontEnd
+BackEnd</t>
+  </si>
+  <si>
+    <t>Mettre en place les tests des Web Services via SoapUI</t>
+  </si>
+  <si>
+    <t>Test Web Services</t>
+  </si>
+  <si>
+    <t>Créer l'architecture du BackEnd</t>
+  </si>
+  <si>
+    <t>Essai Web Services</t>
+  </si>
+  <si>
+    <t>Tester la consommation d'un web service (BackEnd) par l'application (FrontEnd)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,22 +635,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -629,13 +653,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,7 +731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,9 +764,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,6 +816,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -941,401 +1008,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="82.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>4</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>3</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="C27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>7</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="C33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>5</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>6</v>
-      </c>
-      <c r="B27" s="16" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>8</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C35" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>7</v>
-      </c>
-      <c r="B33" s="16" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>8</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A23:A26"/>
@@ -1346,16 +1423,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1363,49 +1430,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="14" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -1416,14 +1483,14 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -1447,18 +1514,18 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>9</v>
@@ -1473,9 +1540,9 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -1484,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -1499,9 +1566,9 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -1510,7 +1577,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
@@ -1525,9 +1592,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1536,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>5</v>
@@ -1551,18 +1618,18 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
@@ -1577,18 +1644,18 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -1603,18 +1670,18 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
@@ -1629,18 +1696,18 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
@@ -1655,18 +1722,18 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
@@ -1681,18 +1748,18 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>5</v>
@@ -1707,18 +1774,18 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
@@ -1733,9 +1800,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1744,7 +1811,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
@@ -1759,9 +1826,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1770,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
@@ -1785,114 +1852,122 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="3">
         <v>43272</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G20" s="3">
         <v>43272</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="3">
         <v>43272</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G22" s="3">
         <v>43276</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -1905,45 +1980,183 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43281</v>
+      </c>
+      <c r="H24" s="3">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43281</v>
+      </c>
+      <c r="H25" s="3">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43281</v>
+      </c>
+      <c r="H26" s="3">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62CF2D9E-C12D-D84E-8066-C50E186403EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10453627-84A0-924F-AFC2-DFFF7E0DDA53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
   <si>
     <t>Status</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Modèles</t>
-  </si>
-  <si>
-    <t>En cours</t>
   </si>
   <si>
     <t>Ok</t>
@@ -123,15 +120,6 @@
     <t>Mettre en place le routing du module Public</t>
   </si>
   <si>
-    <t>Implémenter une première version des modèles</t>
-  </si>
-  <si>
-    <t>Design Interface Application</t>
-  </si>
-  <si>
-    <t>Proposer des modeles pour l'interface graphique des différents composants de l'application</t>
-  </si>
-  <si>
     <t>GestiBank - Plan d'action</t>
   </si>
   <si>
@@ -162,24 +150,9 @@
     <t>Internationalisation du site</t>
   </si>
   <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Vérification du respect des exigences du cahier des charges</t>
-  </si>
-  <si>
     <t>Bonus</t>
   </si>
   <si>
-    <t>Amélioration de l'interface graphique</t>
-  </si>
-  <si>
-    <t>Ajout de fonctionnalités supplémentaires</t>
-  </si>
-  <si>
-    <t>Mise en cohérence du site</t>
-  </si>
-  <si>
     <t>GestiBank - Suivi des actions</t>
   </si>
   <si>
@@ -219,10 +192,6 @@
     <t>Création des composants du module Public</t>
   </si>
   <si>
-    <t>- Définir la structure des modèles au niveau du BackEnd
-- Définir la structure des modèles au niveau du FrontEnd</t>
-  </si>
-  <si>
     <t>Organisation du projet</t>
   </si>
   <si>
@@ -274,9 +243,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>FrontEnd - Architecture globale</t>
-  </si>
-  <si>
     <t>Réaliser la description fonctionnelle des Web Services</t>
   </si>
   <si>
@@ -307,9 +273,6 @@
     <t>Communication entre les Services (FrontEnd) et les Web Services (BackEnd)</t>
   </si>
   <si>
-    <t>FrontEnd - Partie fonctionnelle</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -325,15 +288,9 @@
     <t>4.3</t>
   </si>
   <si>
-    <t>Interphace graphique des composants (hors DashBoard)</t>
-  </si>
-  <si>
     <t>Communication entre les services et la partie fonctionnelle des composants</t>
   </si>
   <si>
-    <t>Communication entre l'interface graphique et la partie fonctionnelle des composants</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -343,15 +300,6 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>Base de données</t>
-  </si>
-  <si>
-    <t>Communication entre BackEnd et Base de données</t>
-  </si>
-  <si>
-    <t>Composants "DashBoard"</t>
-  </si>
-  <si>
     <t>6.1</t>
   </si>
   <si>
@@ -367,9 +315,6 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>Test global du site</t>
-  </si>
-  <si>
     <t>7.1</t>
   </si>
   <si>
@@ -382,12 +327,6 @@
     <t>8.2</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
@@ -409,15 +348,6 @@
     <t>Modules et des composants</t>
   </si>
   <si>
-    <t>Partie fonctionnelles des composants (hors DashBoard)</t>
-  </si>
-  <si>
-    <t>Vérification de la maquette du site</t>
-  </si>
-  <si>
-    <t>Vérification Maquette du site</t>
-  </si>
-  <si>
     <t>Créer le plan du site</t>
   </si>
   <si>
@@ -428,9 +358,6 @@
   </si>
   <si>
     <t>Architecture du BackEnd</t>
-  </si>
-  <si>
-    <t>3/4</t>
   </si>
   <si>
     <t>FrontEnd
@@ -450,6 +377,121 @@
   </si>
   <si>
     <t>Tester la consommation d'un web service (BackEnd) par l'application (FrontEnd)</t>
+  </si>
+  <si>
+    <t>Adrien
+Claire</t>
+  </si>
+  <si>
+    <t>Réaliser la description structurelle des modèles</t>
+  </si>
+  <si>
+    <t>Implémenter les modèles au niveau du BackEnd</t>
+  </si>
+  <si>
+    <t>Implémenter les modèles au niveau du FrontEnd</t>
+  </si>
+  <si>
+    <t>MàJ Maquette du site</t>
+  </si>
+  <si>
+    <t>Mettre en cohérence  la maquette du site</t>
+  </si>
+  <si>
+    <t>BackEnd - Architecture</t>
+  </si>
+  <si>
+    <t>FrontEnd - Architecture</t>
+  </si>
+  <si>
+    <t>BackEnd - Base de données</t>
+  </si>
+  <si>
+    <t>Architecture du FrontEnd (AngularJS)</t>
+  </si>
+  <si>
+    <t>Configuration du BackEnd (Java EE - Projet Maven)</t>
+  </si>
+  <si>
+    <t>Configuration de la base de données (phpMyAdmin - MySQL)</t>
+  </si>
+  <si>
+    <t>BackEnd - Annotation des modèles</t>
+  </si>
+  <si>
+    <t>BackEnd - Couche DAO</t>
+  </si>
+  <si>
+    <t>Configuration du BackEnd (Hibernate)</t>
+  </si>
+  <si>
+    <t>FrontEnd - Composants</t>
+  </si>
+  <si>
+    <t>Interface graphique des composants</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Mise en cohérence du BackEnd</t>
+  </si>
+  <si>
+    <t>Mise en cohérence du FrontEnd</t>
+  </si>
+  <si>
+    <t>Test global de l'application</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Partie fonctionnelle des composants</t>
+  </si>
+  <si>
+    <t>Communication entre la partie fonctionnelle et l'interface graphique des composants</t>
+  </si>
+  <si>
+    <t>Implémenter une première version des modèles au niveau du FrontEnd</t>
+  </si>
+  <si>
+    <t>Design du site</t>
+  </si>
+  <si>
+    <t>Architecture du FrontEnd</t>
+  </si>
+  <si>
+    <t>Redéfinir l'architecture du FrontEnd</t>
+  </si>
+  <si>
+    <t>3.1/3.2</t>
+  </si>
+  <si>
+    <t>Créer des modeles pour l'interface graphique des différents composants de l'application</t>
+  </si>
+  <si>
+    <t>Créer les composants graphiques de base via Bootstrap</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Identification des Web Services vis-à-vis des besoins (CdC)</t>
   </si>
 </sst>
 </file>
@@ -502,12 +544,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -593,22 +635,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,34 +657,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +691,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,408 +1046,444 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>126</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>68</v>
+      <c r="B6" s="13"/>
+      <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>75</v>
+      <c r="D11" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>2</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>85</v>
+      <c r="D14" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="B15" s="13"/>
+      <c r="C15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>5</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>93</v>
+      <c r="D21" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>124</v>
+      <c r="B22" s="13"/>
+      <c r="C22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>5</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>128</v>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>102</v>
+      <c r="A25" s="12">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>123</v>
+      <c r="B26" s="13"/>
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>6</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>106</v>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>107</v>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>122</v>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>108</v>
+      <c r="A30" s="12">
+        <v>7</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>45</v>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
+      <c r="B32" s="13"/>
+      <c r="C32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>7</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>47</v>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>114</v>
+      <c r="B34" s="13"/>
+      <c r="C34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="A35" s="12">
         <v>8</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>50</v>
+      <c r="B36" s="13"/>
+      <c r="C36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>9</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1440,72 +1501,72 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="A3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3">
         <v>43270</v>
@@ -1516,22 +1577,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
         <v>43270</v>
@@ -1542,22 +1603,22 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <v>43270</v>
@@ -1568,22 +1629,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3">
         <v>43270</v>
@@ -1594,22 +1655,22 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3">
         <v>43271</v>
@@ -1620,22 +1681,22 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
         <v>43271</v>
@@ -1646,22 +1707,22 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3">
         <v>43271</v>
@@ -1672,22 +1733,22 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3">
         <v>43272</v>
@@ -1698,22 +1759,22 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3">
         <v>43272</v>
@@ -1724,22 +1785,22 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3">
         <v>43271</v>
@@ -1750,22 +1811,22 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3">
         <v>43271</v>
@@ -1776,22 +1837,22 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
         <v>43271</v>
@@ -1802,7 +1863,7 @@
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1811,13 +1872,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3">
         <v>43271</v>
@@ -1828,7 +1889,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1837,13 +1898,13 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3">
         <v>43271</v>
@@ -1852,24 +1913,24 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3">
         <v>43272</v>
@@ -1880,22 +1941,22 @@
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3">
         <v>43272</v>
@@ -1906,22 +1967,22 @@
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3">
         <v>43272</v>
@@ -1930,74 +1991,76 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3">
-        <v>43276</v>
+        <v>43272</v>
       </c>
       <c r="H22" s="3">
         <v>43280</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="3">
-        <v>43272</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>43281</v>
+      </c>
+      <c r="H23" s="3">
+        <v>43282</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3">
         <v>43281</v>
@@ -2007,23 +2070,23 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>120</v>
+      <c r="A25" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3">
         <v>43281</v>
@@ -2034,22 +2097,22 @@
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="3">
         <v>43281</v>
@@ -2058,54 +2121,130 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="3"/>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <v>42918</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43284</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43285</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="3">
+        <v>43285</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="3"/>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="3">
+        <v>43286</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2114,7 +2253,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
@@ -2124,7 +2263,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
@@ -2134,7 +2273,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>

--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10453627-84A0-924F-AFC2-DFFF7E0DDA53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE5990AB-D9A4-B34D-AF40-A720FC58E8E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
   <si>
     <t>Status</t>
   </si>
@@ -264,9 +264,6 @@
     <t>FrontEnd - Modèles</t>
   </si>
   <si>
-    <t>BackEnd - Web Services</t>
-  </si>
-  <si>
     <t>FrontEnd - Service</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>Communication entre les services et la partie fonctionnelle des composants</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
   </si>
   <si>
     <t>Test unitaire - Services et Web Services</t>
-  </si>
-  <si>
-    <t>Test unitaire - Modèles</t>
   </si>
   <si>
     <t>Mise en place des outils de développement collaboratif  (Git et GitHub)</t>
@@ -376,9 +367,6 @@
     <t>Essai Web Services</t>
   </si>
   <si>
-    <t>Tester la consommation d'un web service (BackEnd) par l'application (FrontEnd)</t>
-  </si>
-  <si>
     <t>Adrien
 Claire</t>
   </si>
@@ -492,6 +480,60 @@
   </si>
   <si>
     <t>Identification des Web Services vis-à-vis des besoins (CdC)</t>
+  </si>
+  <si>
+    <t>Tester la consommation d'un Web Service (BackEnd) par l'application (FrontEnd)</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>6.1/6.2</t>
+  </si>
+  <si>
+    <t>Annotation des modèles</t>
+  </si>
+  <si>
+    <t>Couche DAO</t>
+  </si>
+  <si>
+    <t>Annoter les modèles au niveau du BackEnd pour la communication avec la base de données</t>
+  </si>
+  <si>
+    <t>Implémenter la couche DAO au niveau du BackEnd</t>
+  </si>
+  <si>
+    <t>Fausse base de données</t>
+  </si>
+  <si>
+    <t>Créer une fausse base de données</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Configuration BackEnd/Base de données</t>
+  </si>
+  <si>
+    <t>Réaliser la configuration du BackEnd pour la communication avec la base de données</t>
+  </si>
+  <si>
+    <t>Couche Services</t>
+  </si>
+  <si>
+    <t>Implémenter la couche Services  au niveau du BackEnd</t>
+  </si>
+  <si>
+    <t>BackEnd - Couche Webs Services</t>
+  </si>
+  <si>
+    <t>BackEnd - Couche Services</t>
   </si>
 </sst>
 </file>
@@ -639,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -669,13 +711,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,9 +739,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1051,17 +1096,17 @@
       <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1075,17 +1120,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="13"/>
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="13"/>
       <c r="C6" s="7" t="s">
         <v>60</v>
@@ -1095,7 +1140,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1109,7 +1154,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="13"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
@@ -1119,7 +1164,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="13"/>
       <c r="C9" s="7" t="s">
         <v>69</v>
@@ -1129,7 +1174,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="13"/>
       <c r="C10" s="7" t="s">
         <v>70</v>
@@ -1139,7 +1184,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
         <v>71</v>
@@ -1149,7 +1194,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="13"/>
       <c r="C12" s="7" t="s">
         <v>72</v>
@@ -1159,31 +1204,31 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="13"/>
       <c r="C14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
         <v>77</v>
@@ -1193,275 +1238,289 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="14">
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="14">
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="13"/>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>5</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="13"/>
       <c r="C22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="13"/>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="14">
         <v>6</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="13"/>
       <c r="C27" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="13"/>
       <c r="C28" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="13"/>
       <c r="C29" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="13"/>
       <c r="C31" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="13"/>
       <c r="C32" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="13"/>
       <c r="C33" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="13"/>
       <c r="C34" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="14">
         <v>8</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="13"/>
       <c r="C36" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="14">
         <v>9</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
@@ -1470,20 +1529,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1492,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1512,22 +1557,22 @@
       <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1544,10 +1589,10 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1612,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -1638,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
@@ -1889,7 +1934,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1898,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
@@ -1921,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -1976,7 +2021,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -1999,10 +2044,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
@@ -2019,16 +2064,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>5</v>
@@ -2051,10 +2096,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>5</v>
@@ -2071,16 +2116,16 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>5</v>
@@ -2097,16 +2142,16 @@
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>5</v>
@@ -2132,10 +2177,10 @@
         <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>12</v>
@@ -2149,16 +2194,16 @@
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -2175,7 +2220,7 @@
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
@@ -2184,7 +2229,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -2207,16 +2252,16 @@
         <v>4</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>154</v>
+      <c r="F30" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="G30" s="3">
         <v>43285</v>
@@ -2227,7 +2272,7 @@
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -2239,63 +2284,181 @@
       <c r="E31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>154</v>
+      <c r="F31" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="G31" s="3">
         <v>43286</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <v>43287</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43287</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43287</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43287</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43289</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="3">
+        <v>43287</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2307,5 +2470,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A26 A36" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE5990AB-D9A4-B34D-AF40-A720FC58E8E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16395"/>
   </bookViews>
   <sheets>
     <sheet name="Plan d'actions" sheetId="2" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="178">
   <si>
     <t>Status</t>
   </si>
@@ -243,9 +237,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>Réaliser la description fonctionnelle des Web Services</t>
-  </si>
-  <si>
     <t>Routing</t>
   </si>
   <si>
@@ -534,12 +525,43 @@
   </si>
   <si>
     <t>BackEnd - Couche Services</t>
+  </si>
+  <si>
+    <t>Modeles et Services</t>
+  </si>
+  <si>
+    <t>Préparer le fichier de suivi :
+- modeles
+- couche "DAO"
+- couche "Services"
+- couche "Web Services"</t>
+  </si>
+  <si>
+    <t>1.4/1.5/1.6</t>
+  </si>
+  <si>
+    <t>Webs Services</t>
+  </si>
+  <si>
+    <t>Implémentation des Webs Services</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service associé à l'espace Public</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service associé à l'espace Admin</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service associé à l'espace Conseiller</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service associé à l'espace Client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,19 +733,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,7 +823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,26 +856,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,23 +891,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1078,38 +1066,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="82.5" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1119,19 +1107,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>60</v>
       </c>
@@ -1139,11 +1127,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1153,9 +1141,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -1163,9 +1151,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>69</v>
       </c>
@@ -1173,9 +1161,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
@@ -1183,9 +1171,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7" t="s">
         <v>71</v>
       </c>
@@ -1193,9 +1181,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
@@ -1203,316 +1191,318 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>121</v>
+      <c r="B13" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>120</v>
+      <c r="B16" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>4</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="D22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>122</v>
+      <c r="B25" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="7" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="7" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="D32" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="7" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="8" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>9</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A18:A19"/>
@@ -1521,14 +1511,12 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1536,27 +1524,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1582,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -1620,7 +1608,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1646,7 +1634,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -1657,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -1672,7 +1660,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -1683,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
@@ -1698,9 +1686,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1724,9 +1712,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
@@ -1752,7 +1740,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -1776,9 +1764,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1804,7 +1792,7 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -1828,9 +1816,9 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
@@ -1856,7 +1844,7 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
@@ -1880,9 +1868,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -1908,7 +1896,7 @@
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1932,9 +1920,9 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1943,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
@@ -1958,7 +1946,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -1966,10 +1954,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -1984,9 +1972,9 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
@@ -2010,7 +1998,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2021,7 +2009,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -2036,7 +2024,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -2044,10 +2032,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
@@ -2062,18 +2050,18 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>5</v>
@@ -2088,18 +2076,18 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>5</v>
@@ -2116,16 +2104,16 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>5</v>
@@ -2140,18 +2128,18 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>5</v>
@@ -2166,7 +2154,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -2177,10 +2165,10 @@
         <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>12</v>
@@ -2192,18 +2180,18 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -2218,9 +2206,9 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
@@ -2229,7 +2217,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -2244,68 +2232,72 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>150</v>
+      <c r="F30" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G30" s="3">
         <v>43285</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>4</v>
+      <c r="H30" s="3">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>73</v>
+        <v>163</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>150</v>
+        <v>5</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="3">
-        <v>43286</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+        <v>43287</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -2318,20 +2310,20 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -2344,20 +2336,20 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="11" t="s">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -2370,95 +2362,179 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="11" t="s">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>12</v>
+      <c r="F35" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="G35" s="3">
         <v>43287</v>
       </c>
-      <c r="H35" s="3">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="3">
+        <v>43291</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="3">
+        <v>43291</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="3">
+        <v>43291</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="3">
-        <v>43287</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="F39" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="3">
+        <v>43291</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="3">
+        <v>43291</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2471,7 +2547,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A26 A36" numberStoredAsText="1"/>
+    <ignoredError sqref="A26 A35 A37 A38:A40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{293C5BBC-F882-594D-9AAA-3E379FC97CBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan d'actions" sheetId="2" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="178">
   <si>
     <t>Status</t>
   </si>
@@ -342,10 +348,6 @@
     <t>Architecture du BackEnd</t>
   </si>
   <si>
-    <t>FrontEnd
-BackEnd</t>
-  </si>
-  <si>
     <t>Mettre en place les tests des Web Services via SoapUI</t>
   </si>
   <si>
@@ -353,9 +355,6 @@
   </si>
   <si>
     <t>Créer l'architecture du BackEnd</t>
-  </si>
-  <si>
-    <t>Essai Web Services</t>
   </si>
   <si>
     <t>Adrien
@@ -471,9 +470,6 @@
   </si>
   <si>
     <t>Identification des Web Services vis-à-vis des besoins (CdC)</t>
-  </si>
-  <si>
-    <t>Tester la consommation d'un Web Service (BackEnd) par l'application (FrontEnd)</t>
   </si>
   <si>
     <t>5.5</t>
@@ -557,11 +553,21 @@
   <si>
     <t>Implémenter le Web Service associé à l'espace Client</t>
   </si>
+  <si>
+    <t>Réaliser un Web Services Test (FrontEnd - BackEnd - DB)</t>
+  </si>
+  <si>
+    <t>Enrichissement du Web Services Test (FrontEnd - BackEnd - DB)</t>
+  </si>
+  <si>
+    <t>Claire
+Matthieu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -703,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,13 +745,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,9 +865,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,6 +917,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,38 +1109,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="82.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1107,9 +1150,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
@@ -1117,9 +1160,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="7" t="s">
         <v>60</v>
       </c>
@@ -1127,11 +1170,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1141,9 +1184,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -1151,9 +1194,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
         <v>69</v>
       </c>
@@ -1161,9 +1204,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
@@ -1171,9 +1214,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>71</v>
       </c>
@@ -1181,9 +1224,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
@@ -1191,23 +1234,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>120</v>
+      <c r="B13" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="7" t="s">
         <v>75</v>
       </c>
@@ -1215,9 +1258,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
         <v>76</v>
       </c>
@@ -1225,23 +1268,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>119</v>
+      <c r="B16" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
@@ -1249,11 +1292,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>4</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1263,9 +1306,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
         <v>84</v>
       </c>
@@ -1273,33 +1316,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>5</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="7" t="s">
         <v>88</v>
       </c>
@@ -1307,9 +1350,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
@@ -1317,63 +1360,63 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
         <v>6</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>121</v>
+      <c r="B25" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="7" t="s">
         <v>93</v>
       </c>
@@ -1381,120 +1424,134 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
         <v>7</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>128</v>
+      <c r="B30" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
         <v>8</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="D37" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>9</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>9</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
@@ -1503,20 +1560,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1524,47 +1567,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1577,12 +1620,12 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -1608,7 +1651,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1634,7 +1677,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -1660,7 +1703,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -1686,7 +1729,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -1712,7 +1755,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -1764,7 +1807,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -1816,7 +1859,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -1868,7 +1911,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -1920,7 +1963,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -1931,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
@@ -1946,7 +1989,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -1954,10 +1997,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -1972,7 +2015,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -1998,7 +2041,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2009,7 +2052,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -2024,7 +2067,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -2032,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
@@ -2050,9 +2093,9 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>106</v>
@@ -2061,7 +2104,7 @@
         <v>107</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>5</v>
@@ -2076,7 +2119,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -2084,10 +2127,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>5</v>
@@ -2104,16 +2147,16 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>5</v>
@@ -2128,18 +2171,18 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>108</v>
+        <v>150</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>5</v>
@@ -2154,7 +2197,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -2165,10 +2208,10 @@
         <v>34</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>12</v>
@@ -2180,7 +2223,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
@@ -2191,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -2206,7 +2249,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -2217,7 +2260,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -2232,18 +2275,18 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>5</v>
@@ -2258,18 +2301,18 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>5</v>
@@ -2284,18 +2327,18 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>5</v>
@@ -2310,18 +2353,18 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>5</v>
@@ -2336,7 +2379,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>86</v>
       </c>
@@ -2344,10 +2387,10 @@
         <v>106</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>5</v>
@@ -2362,179 +2405,205 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G35" s="3">
         <v>43287</v>
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>43290</v>
+      </c>
+      <c r="H36" s="3">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="3">
-        <v>43291</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="C37" s="12" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G37" s="3">
         <v>43291</v>
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G38" s="3">
         <v>43291</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="E39" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G39" s="3">
         <v>43291</v>
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G40" s="3">
         <v>43291</v>
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="3"/>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="3">
+        <v>43291</v>
+      </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2547,7 +2616,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A26 A35 A37 A38:A40" numberStoredAsText="1"/>
+    <ignoredError sqref="A26 A35:A36 A38 A39:A41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{293C5BBC-F882-594D-9AAA-3E379FC97CBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16395"/>
   </bookViews>
   <sheets>
     <sheet name="Plan d'actions" sheetId="2" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="176">
   <si>
     <t>Status</t>
   </si>
@@ -542,18 +536,6 @@
     <t>Implémentation des Webs Services</t>
   </si>
   <si>
-    <t>Implémenter le Web Service associé à l'espace Public</t>
-  </si>
-  <si>
-    <t>Implémenter le Web Service associé à l'espace Admin</t>
-  </si>
-  <si>
-    <t>Implémenter le Web Service associé à l'espace Conseiller</t>
-  </si>
-  <si>
-    <t>Implémenter le Web Service associé à l'espace Client</t>
-  </si>
-  <si>
     <t>Réaliser un Web Services Test (FrontEnd - BackEnd - DB)</t>
   </si>
   <si>
@@ -562,12 +544,18 @@
   <si>
     <t>Claire
 Matthieu</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Connexion"</t>
+  </si>
+  <si>
+    <t>Amélioration du design de l'application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -740,6 +728,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -832,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,26 +859,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,23 +894,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1109,38 +1069,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="82.5" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1150,9 +1110,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
@@ -1160,9 +1120,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>60</v>
       </c>
@@ -1170,11 +1130,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1184,9 +1144,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -1194,9 +1154,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>69</v>
       </c>
@@ -1204,9 +1164,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
@@ -1214,9 +1174,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>71</v>
       </c>
@@ -1224,9 +1184,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
@@ -1234,11 +1194,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1248,9 +1208,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>75</v>
       </c>
@@ -1258,9 +1218,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7" t="s">
         <v>76</v>
       </c>
@@ -1268,11 +1228,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>3</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1282,9 +1242,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
@@ -1292,11 +1252,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>4</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1306,9 +1266,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="7" t="s">
         <v>84</v>
       </c>
@@ -1316,11 +1276,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>5</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1330,9 +1290,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
@@ -1340,9 +1300,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="7" t="s">
         <v>88</v>
       </c>
@@ -1350,9 +1310,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
@@ -1360,9 +1320,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="7" t="s">
         <v>149</v>
       </c>
@@ -1370,11 +1330,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1384,9 +1344,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="7" t="s">
         <v>90</v>
       </c>
@@ -1394,9 +1354,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="7" t="s">
         <v>91</v>
       </c>
@@ -1404,9 +1364,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="7" t="s">
         <v>92</v>
       </c>
@@ -1414,9 +1374,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="7" t="s">
         <v>93</v>
       </c>
@@ -1424,11 +1384,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>7</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1438,9 +1398,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="7" t="s">
         <v>95</v>
       </c>
@@ -1448,9 +1408,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="7" t="s">
         <v>128</v>
       </c>
@@ -1458,9 +1418,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="7" t="s">
         <v>129</v>
       </c>
@@ -1468,9 +1428,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="7" t="s">
         <v>130</v>
       </c>
@@ -1478,11 +1438,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>8</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1492,9 +1452,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="7" t="s">
         <v>97</v>
       </c>
@@ -1502,9 +1462,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="7" t="s">
         <v>134</v>
       </c>
@@ -1512,11 +1472,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>9</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -1526,9 +1486,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="7" t="s">
         <v>136</v>
       </c>
@@ -1567,47 +1527,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1620,12 +1580,12 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -1651,7 +1611,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1677,7 +1637,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -1703,7 +1663,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -1729,7 +1689,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -1755,7 +1715,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -1807,7 +1767,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -1859,7 +1819,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -1911,7 +1871,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -1963,7 +1923,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -1989,7 +1949,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -2015,7 +1975,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -2041,7 +2001,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2067,7 +2027,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -2093,7 +2053,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>144</v>
       </c>
@@ -2119,7 +2079,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -2145,7 +2105,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>149</v>
       </c>
@@ -2171,7 +2131,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>150</v>
       </c>
@@ -2182,7 +2142,7 @@
         <v>109</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>5</v>
@@ -2197,7 +2157,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -2223,7 +2183,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
@@ -2249,7 +2209,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -2275,7 +2235,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>168</v>
       </c>
@@ -2301,7 +2261,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>152</v>
       </c>
@@ -2327,7 +2287,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>91</v>
       </c>
@@ -2353,7 +2313,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
@@ -2379,7 +2339,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>86</v>
       </c>
@@ -2405,7 +2365,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>159</v>
       </c>
@@ -2421,15 +2381,17 @@
       <c r="E35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>147</v>
+      <c r="F35" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="3">
         <v>43287</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="H35" s="3">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>150</v>
       </c>
@@ -2440,7 +2402,7 @@
         <v>109</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>5</v>
@@ -2455,7 +2417,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>69</v>
       </c>
@@ -2469,141 +2431,127 @@
         <v>146</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="3">
         <v>43291</v>
       </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="H37" s="3">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>147</v>
+      <c r="F38" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G38" s="3">
-        <v>43291</v>
-      </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="12" t="s">
+        <v>43293</v>
+      </c>
+      <c r="H38" s="3">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G39" s="3">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="3">
-        <v>43291</v>
-      </c>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G41" s="3">
-        <v>43291</v>
-      </c>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2616,7 +2564,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A26 A35:A36 A38 A39:A41" numberStoredAsText="1"/>
+    <ignoredError sqref="A26 A35:A36 A38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{093999AA-68ED-8E4A-A917-C9F904033D35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan d'actions" sheetId="2" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="182">
   <si>
     <t>Status</t>
   </si>
@@ -458,9 +464,6 @@
   </si>
   <si>
     <t>Créer les composants graphiques de base via Bootstrap</t>
-  </si>
-  <si>
-    <t>En cours</t>
   </si>
   <si>
     <t>Identification des Web Services vis-à-vis des besoins (CdC)</t>
@@ -551,11 +554,34 @@
   <si>
     <t>Amélioration du design de l'application</t>
   </si>
+  <si>
+    <t>Implémenter le Web Service "Espace Conseiller"</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Espace Public"</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Espace Client"</t>
+  </si>
+  <si>
+    <t>Aymen
+Claire
+Adrien</t>
+  </si>
+  <si>
+    <t>8.1/8.2</t>
+  </si>
+  <si>
+    <t>Mise en cohérence</t>
+  </si>
+  <si>
+    <t>Mettre en cohérence le BackEnd et le FrontEnd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +623,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,9 +747,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,10 +762,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,9 +879,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,6 +931,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1069,38 +1123,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="82.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1110,9 +1164,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
@@ -1120,9 +1174,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>60</v>
       </c>
@@ -1130,11 +1184,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1144,9 +1198,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -1154,9 +1208,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="7" t="s">
         <v>69</v>
       </c>
@@ -1164,9 +1218,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
@@ -1174,9 +1228,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="7" t="s">
         <v>71</v>
       </c>
@@ -1184,9 +1238,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
@@ -1194,11 +1248,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1208,9 +1262,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>75</v>
       </c>
@@ -1218,9 +1272,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>76</v>
       </c>
@@ -1228,11 +1282,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>3</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1242,9 +1296,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
@@ -1252,11 +1306,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1266,9 +1320,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>84</v>
       </c>
@@ -1276,33 +1330,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>5</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>88</v>
       </c>
@@ -1310,9 +1364,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
@@ -1320,21 +1374,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>6</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1344,9 +1398,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="7" t="s">
         <v>90</v>
       </c>
@@ -1354,9 +1408,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7" t="s">
         <v>91</v>
       </c>
@@ -1364,9 +1418,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="7" t="s">
         <v>92</v>
       </c>
@@ -1374,9 +1428,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="7" t="s">
         <v>93</v>
       </c>
@@ -1384,11 +1438,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>7</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1398,9 +1452,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="7" t="s">
         <v>95</v>
       </c>
@@ -1408,9 +1462,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="7" t="s">
         <v>128</v>
       </c>
@@ -1418,9 +1472,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
         <v>129</v>
       </c>
@@ -1428,9 +1482,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>130</v>
       </c>
@@ -1438,11 +1492,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>8</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1452,9 +1506,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="7" t="s">
         <v>97</v>
       </c>
@@ -1462,9 +1516,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="7" t="s">
         <v>134</v>
       </c>
@@ -1472,11 +1526,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>9</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -1486,9 +1540,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="7" t="s">
         <v>136</v>
       </c>
@@ -1498,12 +1552,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A18:A19"/>
@@ -1512,14 +1568,12 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1527,27 +1581,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
@@ -1567,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1585,7 +1639,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -1611,7 +1665,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1637,7 +1691,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -1663,7 +1717,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -1689,7 +1743,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -1715,7 +1769,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -1767,7 +1821,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -1819,7 +1873,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -1871,7 +1925,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -1923,7 +1977,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -1949,7 +2003,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -1975,7 +2029,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -2001,7 +2055,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2012,7 +2066,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -2027,7 +2081,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -2053,7 +2107,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>144</v>
       </c>
@@ -2079,7 +2133,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -2105,9 +2159,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>106</v>
@@ -2131,18 +2185,18 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>169</v>
+        <v>149</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>5</v>
@@ -2157,7 +2211,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -2183,7 +2237,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
@@ -2209,7 +2263,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -2235,18 +2289,18 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>5</v>
@@ -2261,18 +2315,18 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>5</v>
@@ -2287,18 +2341,18 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>5</v>
@@ -2313,18 +2367,18 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>5</v>
@@ -2339,7 +2393,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>86</v>
       </c>
@@ -2347,10 +2401,10 @@
         <v>106</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>5</v>
@@ -2365,18 +2419,18 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>5</v>
@@ -2391,20 +2445,20 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="13" t="s">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2417,21 +2471,21 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>173</v>
+      <c r="E37" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>12</v>
@@ -2443,20 +2497,20 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2469,71 +2523,137 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>147</v>
+      <c r="F39" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G39" s="3">
         <v>43293</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3">
+        <v>43294</v>
+      </c>
+      <c r="H40" s="3">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3">
+        <v>43294</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3">
+        <v>43294</v>
+      </c>
+      <c r="H42" s="3">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3">
+        <v>43298</v>
+      </c>
+      <c r="H43" s="3">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="10"/>
@@ -2543,7 +2663,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2564,7 +2684,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A26 A35:A36 A38" numberStoredAsText="1"/>
+    <ignoredError sqref="A26 A35:A36 A38 A40:A42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/GestiBank - Suivi du projet.xlsx
+++ b/GestiBank - Suivi du projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{093999AA-68ED-8E4A-A917-C9F904033D35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4B2407B-6CD2-ED4D-9CDD-8FAAFD26D2EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="193">
   <si>
     <t>Status</t>
   </si>
@@ -549,19 +549,7 @@
 Matthieu</t>
   </si>
   <si>
-    <t>Implémenter le Web Service "Connexion"</t>
-  </si>
-  <si>
     <t>Amélioration du design de l'application</t>
-  </si>
-  <si>
-    <t>Implémenter le Web Service "Espace Conseiller"</t>
-  </si>
-  <si>
-    <t>Implémenter le Web Service "Espace Public"</t>
-  </si>
-  <si>
-    <t>Implémenter le Web Service "Espace Client"</t>
   </si>
   <si>
     <t>Aymen
@@ -576,6 +564,52 @@
   </si>
   <si>
     <t>Mettre en cohérence le BackEnd et le FrontEnd</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Réaliser le support de présentation de l'application</t>
+  </si>
+  <si>
+    <t>Matthieu
+Aymen</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Connexion" (BackEnd et FrontEnd)</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Espace Conseiller" (BackEnd et FrontEnd)</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Espace Public" (BackEnd et FrontEnd)</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Espace Client" (BackEnd et FrontEnd)</t>
+  </si>
+  <si>
+    <t>Implémenter le Web Service "Espace Admin" (BackEnd et FrontEnd)</t>
+  </si>
+  <si>
+    <t>Améliorer le Web Service "Espace Client" (BackEnd et FrontEnd)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Interface graphique</t>
+  </si>
+  <si>
+    <t>Améliorer l'aspect "responsive" de l'appliction</t>
+  </si>
+  <si>
+    <t>Finaliser de l'application</t>
   </si>
 </sst>
 </file>
@@ -722,9 +756,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,13 +793,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,52 +1169,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1188,63 +1222,63 @@
       <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1252,33 +1286,33 @@
       <c r="A13" s="17">
         <v>2</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1286,23 +1320,23 @@
       <c r="A16" s="17">
         <v>3</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1310,23 +1344,23 @@
       <c r="A18" s="17">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1334,53 +1368,53 @@
       <c r="A20" s="17">
         <v>5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1388,53 +1422,53 @@
       <c r="A25" s="17">
         <v>6</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1442,53 +1476,53 @@
       <c r="A30" s="17">
         <v>7</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1496,33 +1530,33 @@
       <c r="A35" s="17">
         <v>8</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1530,28 +1564,42 @@
       <c r="A38" s="17">
         <v>9</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
@@ -1560,20 +1608,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1582,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1595,11 +1629,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1640,1038 +1674,1148 @@
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
         <v>43270</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
         <v>43270</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>43270</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
         <v>43270</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>43270</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
         <v>43270</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
         <v>43271</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
         <v>43271</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
         <v>43271</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
         <v>43272</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>43272</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
         <v>43272</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>43272</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
         <v>43271</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
         <v>43271</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
         <v>43271</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
         <v>43271</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
         <v>43271</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>43271</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
         <v>43272</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>43280</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
         <v>43272</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>43280</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2">
         <v>43272</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>43280</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
         <v>43272</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>43280</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
         <v>43281</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>43282</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
         <v>43281</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>43282</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
         <v>43281</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>43282</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
         <v>43281</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>43282</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2">
         <v>42918</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>43285</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
         <v>43284</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>43284</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
         <v>43285</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>43285</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2">
         <v>43285</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>43285</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
         <v>43287</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>43289</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2">
         <v>43287</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>43289</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2">
         <v>43287</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>43289</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2">
         <v>43287</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>43289</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2">
         <v>43287</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>43294</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2">
         <v>43290</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>43293</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2">
         <v>43291</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>43293</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43293</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2">
+        <v>43293</v>
+      </c>
+      <c r="H39" s="2">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2">
+        <v>43294</v>
+      </c>
+      <c r="H40" s="2">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3">
-        <v>43293</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
         <v>43294</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="H41" s="2">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3">
-        <v>43293</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2">
+        <v>43294</v>
+      </c>
+      <c r="H42" s="2">
         <v>43298</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="15" t="s">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2">
+        <v>43298</v>
+      </c>
+      <c r="H43" s="2">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D44" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2">
+        <v>43299</v>
+      </c>
+      <c r="H44" s="2">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2">
+        <v>43299</v>
+      </c>
+      <c r="H45" s="2">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2">
+        <v>43299</v>
+      </c>
+      <c r="H46" s="2">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="B47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3">
-        <v>43294</v>
-      </c>
-      <c r="H40" s="3">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3">
-        <v>43294</v>
-      </c>
-      <c r="H41" s="3">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2">
+        <v>43299</v>
+      </c>
+      <c r="H47" s="2">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3">
-        <v>43294</v>
-      </c>
-      <c r="H42" s="3">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="C48" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E48" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3">
-        <v>43298</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2">
         <v>43299</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H48" s="2">
+        <v>43299</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2684,7 +2828,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A26 A35:A36 A38 A40:A42" numberStoredAsText="1"/>
+    <ignoredError sqref="A26 A35:A36 A46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>